--- a/src/main/webapp/resources/upfile/professors.xlsx
+++ b/src/main/webapp/resources/upfile/professors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungjun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E137490-0CF5-4D88-912E-451B8DBA6430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Professors" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
   <si>
     <t>아이디 *중복불가</t>
   </si>
@@ -67,15 +66,67 @@
     <t>아이디, 비밀번호, 전화번호, 우편번호는 셀 형식을 텍스트 형식으로 맞춰주세요. 비어있는 행은 삭제해주세요.</t>
   </si>
   <si>
+    <t>김성준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999.03.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8956-8050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ksjmg0312@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성준</t>
+    <t>admin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rytn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rytn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태규</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,15 +134,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1999.03.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-8956-8050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안양</t>
+    <t>1944.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-0000-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,7 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ksjmg0312@gmail.com</t>
+    <t>ddd@dddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,42 +166,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rytn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이태규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1950.03.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-0000-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dddd@ddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교수</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rytn2</t>
+  </si>
+  <si>
+    <t>rytn3</t>
+  </si>
+  <si>
+    <t>rytn4</t>
+  </si>
+  <si>
+    <t>rytn5</t>
+  </si>
+  <si>
+    <t>rytn6</t>
+  </si>
+  <si>
+    <t>rytn7</t>
+  </si>
+  <si>
+    <t>rytn8</t>
+  </si>
+  <si>
+    <t>rytn9</t>
+  </si>
+  <si>
+    <t>rytn10</t>
+  </si>
+  <si>
+    <t>rytn11</t>
+  </si>
+  <si>
+    <t>rytn12</t>
+  </si>
+  <si>
+    <t>오레오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사또밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빼빼로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘칩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나킥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로티스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우깡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인디언밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데샌드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초코파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오예스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1944.01.02</t>
+  </si>
+  <si>
+    <t>1944.01.03</t>
+  </si>
+  <si>
+    <t>1944.01.04</t>
+  </si>
+  <si>
+    <t>1944.01.05</t>
+  </si>
+  <si>
+    <t>1944.01.06</t>
+  </si>
+  <si>
+    <t>1944.01.07</t>
+  </si>
+  <si>
+    <t>1944.01.08</t>
+  </si>
+  <si>
+    <t>1944.01.09</t>
+  </si>
+  <si>
+    <t>1944.01.10</t>
+  </si>
+  <si>
+    <t>1944.01.11</t>
+  </si>
+  <si>
+    <t>1944.01.12</t>
+  </si>
+  <si>
+    <t>010-0000-0002</t>
+  </si>
+  <si>
+    <t>010-0000-0003</t>
+  </si>
+  <si>
+    <t>010-0000-0004</t>
+  </si>
+  <si>
+    <t>010-0000-0005</t>
+  </si>
+  <si>
+    <t>010-0000-0006</t>
+  </si>
+  <si>
+    <t>010-0000-0007</t>
+  </si>
+  <si>
+    <t>010-0000-0008</t>
+  </si>
+  <si>
+    <t>010-0000-0009</t>
+  </si>
+  <si>
+    <t>010-0000-0010</t>
+  </si>
+  <si>
+    <t>010-0000-0011</t>
+  </si>
+  <si>
+    <t>010-0000-0012</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1227</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>2층</t>
+  </si>
+  <si>
+    <t>3층</t>
+  </si>
+  <si>
+    <t>4층</t>
+  </si>
+  <si>
+    <t>5층</t>
+  </si>
+  <si>
+    <t>6층</t>
+  </si>
+  <si>
+    <t>7층</t>
+  </si>
+  <si>
+    <t>8층</t>
+  </si>
+  <si>
+    <t>9층</t>
+  </si>
+  <si>
+    <t>10층</t>
+  </si>
+  <si>
+    <t>11층</t>
+  </si>
+  <si>
+    <t>12층</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,39 +502,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,26 +567,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,6 +663,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -441,13 +678,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -512,51 +742,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="25.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="1" max="2" width="27.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="7" width="27.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="22.375" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -596,7 +809,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -610,98 +823,584 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2">
+        <v>36161</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" s="2">
-        <v>45562</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M4" s="2">
-        <v>42064</v>
+        <v>36161</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2">
+        <v>36162</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2">
+        <v>36163</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
+        <v>36164</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>36165</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2">
+        <v>36166</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>36167</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2">
+        <v>36168</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2">
+        <v>36169</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2">
+        <v>36170</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2">
+        <v>36171</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2">
+        <v>36172</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{CCA4D23B-E7B4-480A-9330-5FA7E5B71D65}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{4043D2D7-6B4F-4BCD-830D-DC8080BD6D1B}"/>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J5:J15" r:id="rId3" display="ddd@dddd"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>